--- a/biology/Zoologie/Crossodactylus_boulengeri/Crossodactylus_boulengeri.xlsx
+++ b/biology/Zoologie/Crossodactylus_boulengeri/Crossodactylus_boulengeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crossodactylus boulengeri est une espèce d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crossodactylus boulengeri est une espèce d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États de Rio de Janeiro et de São Paulo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États de Rio de Janeiro et de São Paulo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 46 spécimens adultes mâles observés lors de la revalidation de l'espèce mesurent entre 20,2 mm et 27,1 mm de longueur standard et les 36 spécimens adultes femelles observés lors de la revalidation de l'espèce mesurent entre 20,4 mm et 27,8 mm de longueur standard[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 46 spécimens adultes mâles observés lors de la revalidation de l'espèce mesurent entre 20,2 mm et 27,1 mm de longueur standard et les 36 spécimens adultes femelles observés lors de la revalidation de l'espèce mesurent entre 20,4 mm et 27,8 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été relevée de sa synonymie avec Crossodactylus dispar par Pimenta, Cruz &amp; Caramaschi en 2014[2] dans laquelle elle avait été placé par Lutz en 1930[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été relevée de sa synonymie avec Crossodactylus dispar par Pimenta, Cruz &amp; Caramaschi en 2014 dans laquelle elle avait été placé par Lutz en 1930.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>de Witte, 1930 : Liste des reptiles et batraciens récoltés au Brésil par La Mission Massart (1922-23) et description de sept nouvelles espèces. Une mission biologique belge au Brésil (Août 1922-Mai 1923), vol. 2, p. 213-230.</t>
         </is>
